--- a/http_company_list.xlsx
+++ b/http_company_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>東京都中央区日本橋蛎殻町一丁目16番12号</t>
+          <t>http://www.yutaka-trusty.co.jp/</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>大阪市中央区道修町三丁目6番1号</t>
+          <t>http://www.palgroup.co.jp/</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>福島県福島市太平寺字堰ノ上58番地</t>
+          <t>http://www.alleanza-hd.co.jp/</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>東京都豊島区東池袋一丁目9番6号</t>
+          <t>http://www.hitocom-hd.com/ja/index.html</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>東京都北区王子二丁目30番3号 ニッセイ王子ビル6階</t>
+          <t>http://www.ainavo.co.jp/</t>
         </is>
       </c>
     </row>
@@ -1077,6 +1077,4656 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>愛媛県宇和島市津島町北灘甲88番地1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>株式会社カイノス</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>http://www.kainos.co.jp/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>東京都 | 医薬品</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>東京都文京区本郷二丁目38番18号</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>清和中央ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>http://www.seiwa-chuo-holdings.co.jp/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>大阪府 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>http://www.seiwa-chuo-holdings.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>鳥越製粉株式会社</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>http://www.the-torigoe.co.jp/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>福岡県 | 食料品</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>福岡県うきは市吉井町276番地の1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>株式会社ダイセキ</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>http://www.daiseki.co.jp/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>愛知県 | サービス業</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>名古屋市港区船見町1番地86</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>株式会社ジーダット</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>http://www.jedat.co.jp/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>東京都 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>東京都中央区湊一丁目1番12号</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>株式会社ドトール・日レスホールディングス</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>http://www.dnh.co.jp/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>http://www.dnh.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>旭化学工業株式会社</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>http://www.asahikagakukogyo.co.jp/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>愛知県 | 化学</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>愛知県碧南市港南町二丁目8番地14</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>株式会社ウチヤマホールディングス</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>http://www.uchiyama-gr.jp/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>福岡県 | サービス業</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>http://www.uchiyama-gr.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>アマテイ株式会社</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>http://www.amatei.co.jp/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>兵庫県 | 金属製品</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>兵庫県尼崎市西高洲町9番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>東京汽船株式会社</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>http://www.tokyokisen.co.jp/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>神奈川県 | 倉庫・運輸関連業</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>http://www.tokyokisen.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>中央魚類株式会社</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>http://www.marunaka-net.co.jp/company/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>東京都 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>東京都江東区豊洲6丁目6番2号</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>常磐興産株式会社</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>http://www.joban-kosan.com/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>福島県 | サービス業</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>福島県いわき市常磐藤原町蕨平50番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>株式会社ありがとうサービス</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>http://www.arigatou-s.com/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>愛媛県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>愛媛県今治市八町西三丁目6番30号</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>日鉄鉱業株式会社</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>http://www.nittetsukou.co.jp/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>東京都 | 鉱業</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>東京都千代田区丸の内二丁目3番2号</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>株式会社リード</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>http://www.lead.co.jp/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>埼玉県 | 輸送用機器</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>埼玉県熊谷市弥藤吾578番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>トレーディア株式会社</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>http://www.tradia.co.jp/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>兵庫県 | 倉庫・運輸関連業</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>http://www.tradia.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>株式会社いなげや</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>http://www.inageya.co.jp/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>東京都立川市栄町六丁目1番地の1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>株式会社　篠崎屋</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>http://shinozakiya.com/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>埼玉県 | 食料品</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>埼玉県春日部市赤沼870番地1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>株式会社弘電社</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>http://www.kk-kodensha.co.jp/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>東京都 | 建設業</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>東京都中央区銀座五丁目11番10号</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>株式会社　平和堂</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>http://www.heiwado.jp/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>滋賀県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>http://www.heiwado.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>株式会社ウイルプラスホールディングス</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>http://www.willplus.co.jp/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>東京都港区芝5丁目13番15号</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>株式会社田中化学研究所</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>http://www.tanaka-chem.co.jp/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>福井県 | 化学</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>福井県福井市白方町45字砂浜割5番10</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>大伸化学株式会社</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>http://www.daishin-chemical.co.jp/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>東京都 | 化学</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>東京都港区芝大門一丁目9番9号</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>株式会社ヨシムラ・フード・ホールディングス</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>http://y-food-h.com/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>東京都 | 食料品</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>東京都千代田区内幸町二丁目2番2号</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>東陽倉庫株式会社</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>http://www.toyo-logistics.co.jp/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>愛知県 | 倉庫・運輸関連業</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>http://www.toyo-logistics.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ムラキ株式会社</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>http://www.muraki-ltd.co.jp/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>東京都 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>東京都多摩市関戸二丁目24番地27</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>セブン工業株式会社</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>http://www.seven-gr.co.jp/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>岐阜県 | その他製品</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>岐阜県美濃加茂市牧野1006番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>株式会社ハーバー研究所</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>http://www.haba.com/company/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>東京都 | 化学</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>東京都千代田区神田須田町一丁目24番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>クリエートメディック株式会社</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>http://www.createmedic.co.jp/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>神奈川県 | 精密機器</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>神奈川県横浜市都筑区茅ヶ崎南二丁目5番25号</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>株式会社ガーラ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>http://www.gala.jp/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>東京都 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>東京都渋谷区神宮前六丁目12番18号</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>株式会社テクノ菱和</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>http://www.techno-ryowa.co.jp/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>東京都 | 建設業</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>東京都港区芝大門二丁目12番8号</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>株式会社カーメイト</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>http://carmate.co.jp/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>東京都 | 輸送用機器</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>東京都豊島区長崎五丁目33番11号</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>株式会社日本色材工業研究所</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>http://www.shikizai.com/japanese/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>東京都 | 化学</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>東京都港区三田五丁目3番13号</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>株式会社トライアイズ</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>http://www.triis.co.jp/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>東京都 | サービス業</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>http://www.triis.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>日本ドライケミカル株式会社</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>http://www.ndc-group.co.jp/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>東京都 | 機械</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>東京都北区田端六丁目1番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>理研計器株式会社</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>http://www.rikenkeiki.co.jp/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>東京都 | 精密機器</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>東京都板橋区小豆沢二丁目7番6号</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>エスフーズ株式会社</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>http://www.sfoods.co.jp/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>兵庫県 | 食料品</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>兵庫県西宮市鳴尾浜1丁目22番13</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>株式会社魚喜</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>http://www.uoki.co.jp/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>神奈川県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>神奈川県藤沢市湘南台二丁目10番地5</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>神田通信機株式会社</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>http://www.kandt.co.jp/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>東京都 | 建設業</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>東京都千代田区神田富山町24番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ブティックス株式会社</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>http://www.btix.jp/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>東京都 | サービス業</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>東京都港区三田一丁目4番28号</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>日本電子材料株式会社</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>http://www.jem-net.co.jp/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>兵庫県 | 電気機器</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>兵庫県尼崎市西長洲町二丁目5番13号</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>櫻島埠頭株式会社</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>http://www.sakurajima-futo.co.jp/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>大阪府 | 倉庫・運輸関連業</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>大阪市此花区梅町1丁目1番11号</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>株式会社大森屋</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>http://www.ohmoriya.com/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>大阪府 | 食料品</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>大阪市此花区西九条1丁目1番60号</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>明豊ファシリティワークス株式会社</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>http://meiho.co.jp/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>東京都 | サービス業</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>東京都千代田区平河町二丁目7番9号</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ジェイ・エスコムホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>http://www.j-escom.co.jp/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>東京都 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>東京都港区赤坂六丁目15番11号</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>横浜魚類株式会社</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>http://www.yokohamagyorui.co.jp/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>神奈川県 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>横浜市神奈川区山内町1番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>技研ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>http://www.giken-hd.co.jp/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>東京都 | 建設業</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>東京都千代田区神田東松下町17番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>株式会社トーア紡コーポレーション</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>http://www.toabo.co.jp/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>大阪府 | 繊維製品</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>http://www.toabo.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>株式会社エス・サイエンス</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>http://www.s-science.jp/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>東京都 | 非鉄金属</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>東京都中央区銀座八丁目9番13号</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>玉井商船株式会社</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>http://www.tamaiship.co.jp/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>東京都 | 海運業</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>http://www.tamaiship.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>株式会社ブロードリーフ</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>http://www.broadleaf.co.jp/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>東京都 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>東京都品川区東品川四丁目13番14号</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>総合商研株式会社</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>http://www.shouken.co.jp/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>北海道 | その他製品</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>札幌市東区東苗穂二条三丁目4番48号</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>株式会社ソフトクリエイトホールディングス</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>http://www.softcreate-holdings.co.jp/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>東京都 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>http://www.softcreate-holdings.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>エコートレーディング株式会社</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>http://echotd.co.jp/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>兵庫県 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>兵庫県西宮市鳴尾浜2丁目1番23号</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>株式会社タカトリ</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>http://www.takatori-g.co.jp/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>奈良県 | 機械</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>奈良県橿原市新堂町313番地の1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>株式会社ホットランド</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>http://www.hotland.co.jp/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>東京都中央区新富一丁目9番6号</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ソフトマックス株式会社</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>http://www.s-max.co.jp/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>鹿児島県 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>鹿児島県鹿児島市加治屋町12番11号</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>フルサト・マルカホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>http://www.unisol-gr.com/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>大阪府 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>http://www.unisol-gr.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>株式会社ジャパン・ティッシュエンジニアリング</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>http://www.jpte.co.jp/</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>愛知県 | 精密機器</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>愛知県蒲郡市三谷北通6丁目209番地の1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>株式会社コンセック</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>http://consec.co.jp/</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>広島県 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>広島市西区商工センター四丁目6番8号</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>リンテック株式会社</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>http://www.lintec.co.jp/</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>東京都 | その他製品</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>東京都板橋区本町23番23号</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ＮＥＣキャピタルソリューション株式会社</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>http://www.necap.co.jp/</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>東京都 | その他金融業</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>東京都港区港南二丁目15番3号</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>株式会社エリアクエスト</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>http://www.area-quest.com/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>東京都 | 不動産業</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>東京都新宿区西新宿六丁目5番1号 新宿アイランドタワー7階</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>キクカワエンタープライズ株式会社</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>http://www.kikukawa.co.jp/</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>三重県 | 機械</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>http://www.kikukawa.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>北野建設株式会社</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>http://www.kitano.co.jp/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>長野県 | 建設業</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>長野県長野市県町524番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>株式会社サンリツ</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>http://www.srt.co.jp/</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>東京都 | 倉庫・運輸関連業</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>東京都港区港南二丁目12番32号</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>株式会社ＳＹＳホールディングス</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>http://www.syshd.co.jp/</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>愛知県 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>http://www.syshd.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>サンリン株式会社</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>http://www.sanrinkk.co.jp/</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>長野県 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>長野県東筑摩郡山形村字下本郷4082番地3</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>古林紙工株式会社</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>http://www.furubayashi-shiko.co.jp/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>大阪府 | パルプ・紙</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>大阪市中央区大手通三丁目1番12号</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>沖電気工業株式会社</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>http://www.oki.com/jp/</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>東京都 | 電気機器</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>東京都港区虎ノ門1丁目7番12号</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>日本ライフライン株式会社</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>http://www.jll.co.jp/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>東京都 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>東京都品川区東品川二丁目2番20号</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>株式会社ゼネラル・オイスター</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>http://www.oysterbar.co.jp/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>東京都中央区日本橋茅場町二丁目13番13号</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>日東製網株式会社</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>http://www.nittoseimo.co.jp/</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>東京都 | 繊維製品</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>東京都港区新橋二丁目20番15-701号</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>日本アイ・エス・ケイ株式会社</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>http://www.king-ind.co.jp/</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>東京都 | その他製品</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>東京都台東区元浅草2丁目7番13号</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>株式会社オーエムツーネットワーク</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>http://www.om2.co.jp/</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>東京都港区芝大門2丁目4番7号</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>細谷火工株式会社</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>http://www.hosoya-pyro.co.jp/</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>東京都 | 化学</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>東京都あきる野市菅生1847番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>株式会社フライングガーデン</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>http://www.fgarden.co.jp/</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>栃木県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>栃木県小山市本郷町三丁目4番18号</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>北陸瓦斯株式会社</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>http://www.hokurikugas.co.jp/</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>新潟県 | 電気・ガス業</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>新潟市中央区東大通一丁目2番23号 北陸ビル内</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>大東港運株式会社</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>http://www.daito-koun.co.jp/</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>東京都 | 倉庫・運輸関連業</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>http://www.daito-koun.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>大木ヘルスケアホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>http://www.ohki-net.co.jp/</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>東京都 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>http://www.ohki-net.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>桂川電機株式会社</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>http://www.kiphq.co.jp/</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>東京都 | 機械</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>東京都大田区矢口一丁目5番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>日本化学産業株式会社</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>http://www.nihonkagakusangyo.co.jp/</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>東京都 | 化学</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>東京都台東区東上野四丁目8番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>フジコピアン株式会社</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>http://www.fujicopian.com/</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>大阪府 | その他製品</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>大阪市西淀川区御幣島五丁目4番14号</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>兵機海運株式会社</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>http://www.hyoki.co.jp/</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>兵庫県 | 倉庫・運輸関連業</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>神戸市中央区港島3丁目6番地1</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>株式会社学究社</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>http://www.gakkyusha.com/</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>東京都 | サービス業</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>東京都渋谷区代々木一丁目12番8号</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>日本パワーファスニング株式会社</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>http://www.jpf-net.co.jp/</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>大阪府 | 金属製品</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>大阪府箕面市船場西1丁目8番3号</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>株式会社遠藤製作所</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>http://endo-mfg.co.jp/</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>新潟県 | その他製品</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>新潟県燕市東太田987番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>株式会社シダー</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>http://www.cedar-web.com/</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>福岡県 | サービス業</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>福岡県北九州市小倉北区足立2丁目1番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>株式会社スパンクリートコーポレーション</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>http://www.spancretecorp.com/</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>東京都 | ガラス・土石製品</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>東京都文京区本郷二丁目40番8号</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ＮＳユナイテッド海運株式会社</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>http://www.nsuship.co.jp/</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>東京都 | 海運業</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>東京都千代田区大手町一丁目5番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>株式会社ライフフーズ</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>http://www.lifefoods-tokyo.co.jp/</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>大阪府 | 小売業</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>大阪府吹田市江坂町一丁目13番41号</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>株式会社誠建設工業</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>http://www.makoto-gr.com/</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>大阪府 | 不動産業</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>大阪府堺市中区福田46番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>株式会社　進学会ホールディングス</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>http://www.shingakukai.co.jp/co/info.html</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>北海道 | サービス業</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>北海道札幌市白石区本郷通一丁目北1番15号</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>昭和パックス株式会社</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>http://www.showa-paxxs.co.jp/</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>東京都 | パルプ・紙</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>東京都新宿区市谷本村町2番12号</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>アライドテレシスホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>http://www.at-global.com/</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>東京都 | 電気機器</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>東京都品川区西五反田七丁目21番11号</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>株式会社　山大</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>http://www.yamadai.com/web/company/company.html</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>宮城県 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>宮城県石巻市潮見町2番地の3</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>株式会社トーアミ</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>http://www.toami.co.jp/</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>大阪府 | 金属製品</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>大阪府四條畷市中野新町10番20号</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>初穂商事株式会社</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>http://www.hatsuho.co.jp/</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>愛知県 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>名古屋市中区錦二丁目14番21号</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>株式会社ユアテック</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>http://www.yurtec.co.jp/</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>宮城県 | 建設業</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>仙台市宮城野区榴岡四丁目1番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ヤマトインターナショナル株式会社</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>http://www.yamatointr.co.jp/</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>大阪府 | 繊維製品</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>大阪市中央区博労町二丁目3番9号</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ｎｍｓホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>http://www.n-ms.co.jp/</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>東京都 | サービス業</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>東京都新宿区西新宿三丁目20番2号</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>瀧上工業株式会社</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>http://www.takigami.co.jp/</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>愛知県 | 金属製品</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>愛知県半田市神明町一丁目1番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>東京窯業株式会社</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>http://www.tyk.co.jp/</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>東京都 | ガラス・土石製品</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>東京都港区港南二丁目11番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>株式会社ワイヤレスゲート</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>http://www.wirelessgate.co.jp/</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>東京都 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>東京都品川区東品川二丁目2番20号</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>株式会社エスエルディー</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>http://www.sld-inc.com/</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>東京都港区芝四丁目1番23号</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>伯東株式会社</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>http://www.hakuto.co.jp/</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>東京都 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>東京都新宿区新宿一丁目1番13号</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>中越パルプ工業株式会社</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>http://www.chuetsu-pulp.co.jp/</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>東京都 | パルプ・紙</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>東京都千代田区内幸町一丁目3番2号</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>株式会社カルラ</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>http://www.re-marumatu.co.jp/</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>宮城県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>宮城県富谷市成田九丁目2番地9</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>株式会社日本エスコン</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>http://www.es-conjapan.co.jp/</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>東京都 | 不動産業</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>東京都港区虎ノ門2丁目10番4号</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>小野建株式会社</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>http://www.onoken.co.jp/jp/index.html</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>福岡県 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>福岡県北九州市小倉北区西港町12番地の1</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>国際計測器株式会社</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>http://www.kokusaikk.co.jp/</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>東京都 | 精密機器</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>東京都多摩市永山六丁目21番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>加藤産業株式会社</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>http://www.katosangyo.co.jp/</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>兵庫県 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>http://www.katosangyo.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>株式会社アオキスーパー</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>http://aokisuper.co.jp/</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>愛知県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>http://aokisuper.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>共同ピーアール株式会社</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>http://www.kyodo-pr.co.jp/</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>東京都 | サービス業</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>東京都中央区築地一丁目13番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>萬世電機株式会社</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>http://www.mansei.co.jp/</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>大阪府 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>大阪市福島区福島7丁目15番5号</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>サンワテクノス株式会社</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>http://www.sunwa.co.jp/</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>東京都 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>東京都中央区京橋三丁目1番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>フルハシＥＰＯ株式会社</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>http://www.fuluhashi.co.jp/</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>愛知県 | サービス業</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>名古屋市中区金山一丁目14番18号</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>株式会社　ハウス　オブ　ローゼ</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>http://www.houseofrose.co.jp/</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>東京都港区赤坂2丁目21番7号</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>株式会社白洋舍</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>http://www.hakuyosha.co.jp/</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>東京都 | サービス業</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>東京都大田区下丸子二丁目11番8号</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>パレモ・ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>http://www.palemo.co.jp/</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>愛知県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>http://www.palemo.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>チタン工業株式会社</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>http://www.titankogyo.co.jp/</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>山口県 | 化学</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>山口県宇部市大字小串1978番地の25</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>神鋼商事株式会社</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>http://www.shinsho.co.jp/</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>大阪府 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>大阪市中央区北浜2丁目6番18号 淀屋橋スクエア</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ロングライフホールディング株式会社</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>http://www.longlife-holding.co.jp/index.php</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>大阪府 | サービス業</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>http://www.longlife-holding.co.jp/index.php</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>大同信号株式会社</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>http://www.daido-signal.co.jp/</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>東京都 | 電気機器</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>東京都港区新橋六丁目17番19号</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>株式会社カネミツ</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>http://kanemitsu.co.jp/</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>兵庫県 | 輸送用機器</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>兵庫県明石市大蔵本町20番26号</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>株式会社フィル・カンパニー</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>http://philcompany.jp/</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>東京都 | 建設業</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>東京都中央区築地3丁目1番12号</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>株式会社ジェネレーションパス</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>http://www.genepa.com/</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>東京都新宿区西新宿六丁目12番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>株式会社ヨンキュウ</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>http://www.yonkyu.co.jp/</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>愛媛県 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>愛媛県宇和島市築地町2丁目318番地235</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>株式会社ＩＧポート</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>http://www.igport.co.jp/</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>東京都 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>http://www.igport.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>株式会社アトム</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>http://www.atom-corp.co.jp/index.php</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>神奈川県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>横浜市西区みなとみらい二丁目2番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>株式会社ライフコーポレーション</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>http://www.lifecorp.jp/</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>http://www.lifecorp.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>株式会社　あみやき亭</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>http://www.amiyakitei.co.jp/</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>愛知県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>愛知県春日井市如意申町五丁目12番地の8</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>オリエンタル白石株式会社</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>http://www.orsc.co.jp/</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>東京都 | 建設業</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>東京都江東区豊洲五丁目6番52号</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ＳＥホールディングス・アンド・インキュベーションズ株式会社</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>http://www.sehi.co.jp/</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>東京都 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>東京都新宿区舟町5</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>フィデアホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>http://www.fidea.co.jp/</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>宮城県 | 銀行業</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>http://www.fidea.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>信和株式会社</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>http://shinwa-jp.com/</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>岐阜県 | 金属製品</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>岐阜県海津市平田町仏師川字村中30番7</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>日本精密株式会社</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>http://www.nihon-s.co.jp/company-guide/company-overview/</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>埼玉県 | 精密機器</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>埼玉県川口市本町四丁目1番8号</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>昭和ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>http://www.showa-holdings.co.jp/</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>千葉県 | ゴム製品</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>千葉県柏市十余二348番地</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>日本高周波鋼業株式会社</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>http://www.koshuha.co.jp/</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>東京都 | 鉄鋼</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>東京都千代田区岩本町一丁目10番5号</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>株式会社ＮＦＫホールディングス</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>http://www.nfk-hd.co.jp/</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>東京都 | 機械</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>http://www.nfk-hd.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>六甲バター株式会社</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>http://www.qbb.co.jp/</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>兵庫県 | 食料品</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>神戸市中央区坂口通一丁目3番13号</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>千代田インテグレ株式会社</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>http://www.chiyoda-i.co.jp/</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>東京都 | 電気機器</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>東京都千代田区二番町1番地1</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>東海運株式会社</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>http://www.azumaship.co.jp/</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>東京都 | 倉庫・運輸関連業</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>http://www.azumaship.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>東部ネットワーク株式会社</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>http://www.tohbu.co.jp/</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>神奈川県 | 陸運業</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>横浜市神奈川区栄町2番地の9</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>伊豆シャボテンリゾート株式会社</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>http://www.izu-sr.co.jp/</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>東京都 | サービス業</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>東京都港区南青山七丁目8番4号</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>株式会社スリー・ディー・マトリックス</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>http://www.3d-matrix.co.jp/</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>東京都 | 精密機器</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>http://www.3d-matrix.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>昭栄薬品株式会社</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>http://www.shoei-yakuhin.co.jp/</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>大阪府 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>大阪府大阪市中央区安土町一丁目5番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ＣＢグループマネジメント株式会社</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>http://www.cbgm.co.jp/</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>東京都 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>東京都港区南青山二丁目2番3号</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>兼松エンジニアリング株式会社</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>http://www.kanematsu-eng.jp/</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>高知県 | 機械</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>高知県高知市布師田3981番地7</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>フジプレアム株式会社</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>http://fujipream.co.jp/</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>兵庫県 | 化学</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>兵庫県姫路市飾西38番地1</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>株式会社中村超硬</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>http://www.nakamura-gp.co.jp/</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>大阪府 | 機械</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>大阪府堺市西区鶴田町27番27号</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>株式会社翻訳センター</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>http://www.honyakuctr.com/</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>大阪府 | サービス業</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>大阪市中央区久太郎町四丁目1番3号</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>株式会社ｓＭｅｄｉｏ</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>http://www.smedio.co.jp/</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>東京都 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>東京都中央区新川二丁目3番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Ｇｅｎｋｙ　ＤｒｕｇＳｔｏｒｅｓ株式会社</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>http://genky.co.jp/</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>福井県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>福井県坂井市丸岡町下久米田38字33番</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>株式会社エスライン</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>http://sline.co.jp/company/</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>岐阜県 | 陸運業</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>http://sline.co.jp/company/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>大和冷機工業株式会社</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>http://www.drk.co.jp/</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>大阪府 | 機械</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>大阪市天王寺区小橋町3番13号</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>森六ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>http://www.moriroku.co.jp/</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>東京都 | 化学</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>http://www.moriroku.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>株式会社アイロムグループ</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>http://www.iromgroup.co.jp/</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>東京都 | サービス業</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>東京都千代田区富士見二丁目10番2号</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ＯＢＡＲＡ　ＧＲＯＵＰ株式会社</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>http://www.obara-g.com/</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>神奈川県 | 電気機器</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>http://www.obara-g.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>株式会社はるやまホールディングス</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>http://www.haruyama.co.jp/</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>岡山県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>岡山市北区表町1丁目2番3号</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>朝日インテック株式会社</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>http://www.asahi-intecc.co.jp/</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>愛知県 | 精密機器</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>愛知県瀬戸市暁町3番地100</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>株式会社　巴コーポレーション</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>http://www.tomoe-corporation.co.jp/</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>東京都 | 建設業</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>東京都中央区月島四丁目16番13号</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>株式会社シー・ヴイ・エス・ベイエリア</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>http://www.cvs-bayarea.co.jp/</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>千葉県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>http://www.cvs-bayarea.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>株式会社マルヨシセンター</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>http://ww2.maruyoshi-center.co.jp/</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>香川県 | 小売業</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>香川県高松市国分寺町国分367番地1</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>株式会社マルゼン</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>http://www.maruzen-kitchen.co.jp/</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>東京都 | 金属製品</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>東京都台東区根岸二丁目19番18号</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>株式会社太平製作所</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>http://www.taihei-ss.co.jp/</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>愛知県 | 機械</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>愛知県小牧市大字入鹿出新田字宮前955番8</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>グランディハウス株式会社</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>http://www.grandy.co.jp/index.html</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>栃木県 | 不動産業</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>栃木県宇都宮市大通り四丁目3番18号</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>川辺株式会社</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>http://www.kawabe.co.jp/</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>東京都 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>東京都新宿区四谷4丁目16番3号</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>株式会社ＨＡＮＡＴＯＵＲ　ＪＡＰＡＮ</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>http://www.hanatourjapan.jp/</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>東京都 | サービス業</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>東京都新宿区新宿二丁目3番15号</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>櫻護謨株式会社</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>http://www.sakura-rubber.co.jp/</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>東京都 | ゴム製品</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>東京都渋谷区笹塚一丁目21番17号</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>株式会社グッドライフカンパニー</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>http://www.goodlife-c.jp/</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>福岡県 | 不動産業</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>福岡市博多区博多駅前二丁目17番8号</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>株式会社ヤマノホールディングス</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>http://www.yamano-hd.com/</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>東京都渋谷区代々木一丁目30番7号</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>株式会社ＳＡＮＫＯ　ＭＡＲＫＥＴＩＮＧ　ＦＯＯＤＳ</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>http://www.sankofoods.com/</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>東京都中央区新川一丁目10番14号</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>株式会社アマガサ</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>http://www.amagasa-co.com/</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>東京都 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>東京都台東区上野一丁目16番5号</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>大黒屋ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>http://www.daikokuyajp.com/</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>東京都 | 小売業</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>東京都港区港南四丁目1番8号</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>中国工業株式会社</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>http://www.ckk-chugoku.co.jp/</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>広島県 | 金属製品</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>広島市中区小町2番26号</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>株式会社ベルパーク</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>http://www.bellpark.co.jp/</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>東京都 | 情報・通信業</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>東京都千代田区平河町一丁目4番12号</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Ｇｒｅｅｎ　Ｅａｒｔｈ　Ｉｎｓｔｉｔｕｔｅ株式会社</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>http://gei.co.jp/ja/</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>東京都 | サービス業</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>東京都新宿区新三丁目5番6号</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>株式会社ハイレックスコーポレーション</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>http://www.hi-lex.co.jp/</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>兵庫県 | 輸送用機器</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>兵庫県宝塚市栄町一丁目12番28号</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>株式会社菊池製作所</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>http://www.kikuchiseisakusho.co.jp/</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>東京都 | 金属製品</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>東京都八王子市美山町2161番地21</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ダイトウボウ株式会社</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>http://www.daitobo.co.jp/</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>東京都 | 繊維製品</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>東京都中央区日本橋本町1丁目6番1号</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>日本伸銅株式会社</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>http://www.nippon-shindo.co.jp/</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>大阪府 | 非鉄金属</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>大阪府堺市堺区匠町20番地1</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>ライク株式会社</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>http://www.yakiniku-like.com/</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>大阪府 | サービス業</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>http://www.yakiniku-like.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ＯＣＨＩホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>http://www.ochiholdings.co.jp/</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>福岡県 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>http://www.ochiholdings.co.jp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>永大産業株式会社</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>http://www.eidai.com/</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>大阪府 | その他製品</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>大阪市住之江区平林南2丁目10番60号</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>株式会社ビューティ花壇</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>http://www.beauty-kadan.co.jp/</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>熊本県 | 卸売業</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>熊本県熊本市南区流通団地一丁目46番地</t>
         </is>
       </c>
     </row>
